--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -1120,7 +1120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45810</v>
+        <v>45803</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45811</v>
+        <v>45804</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45805</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45806</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45814</v>
+        <v>45807</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45815</v>
+        <v>45808</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45816</v>
+        <v>45809</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45817</v>
+        <v>45810</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>25</v>
@@ -1329,19 +1329,17 @@
       <c r="D9" t="n">
         <v>37.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>40</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45818</v>
+        <v>45811</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -1362,7 +1360,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45819</v>
+        <v>45812</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -1383,7 +1381,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45820</v>
+        <v>45813</v>
       </c>
       <c r="B12" t="n">
         <v>12</v>
@@ -1404,7 +1402,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45821</v>
+        <v>45814</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
@@ -1425,7 +1423,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45822</v>
+        <v>45815</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1448,7 +1446,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45823</v>
+        <v>45816</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1471,10 +1469,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45824</v>
+        <v>45817</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>25</v>
@@ -1482,17 +1480,19 @@
       <c r="D16" t="n">
         <v>37.5</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45825</v>
+        <v>45818</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45826</v>
+        <v>45819</v>
       </c>
       <c r="B18" t="n">
         <v>12</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45827</v>
+        <v>45820</v>
       </c>
       <c r="B19" t="n">
         <v>12</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45828</v>
+        <v>45821</v>
       </c>
       <c r="B20" t="n">
         <v>12</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45829</v>
+        <v>45822</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45830</v>
+        <v>45823</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="B23" t="n">
         <v>12</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45832</v>
+        <v>45825</v>
       </c>
       <c r="B24" t="n">
         <v>12</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45833</v>
+        <v>45826</v>
       </c>
       <c r="B25" t="n">
         <v>12</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="B26" t="n">
         <v>12</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45835</v>
+        <v>45828</v>
       </c>
       <c r="B27" t="n">
         <v>12</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45836</v>
+        <v>45829</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45837</v>
+        <v>45830</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45838</v>
+        <v>45831</v>
       </c>
       <c r="B30" t="n">
         <v>12</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="B31" t="n">
         <v>12</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45840</v>
+        <v>45833</v>
       </c>
       <c r="B32" t="n">
         <v>12</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="B33" t="n">
         <v>12</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45842</v>
+        <v>45835</v>
       </c>
       <c r="B34" t="n">
         <v>12</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45843</v>
+        <v>45836</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45844</v>
+        <v>45837</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45845</v>
+        <v>45838</v>
       </c>
       <c r="B37" t="n">
         <v>12</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45846</v>
+        <v>45839</v>
       </c>
       <c r="B38" t="n">
         <v>12</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45847</v>
+        <v>45840</v>
       </c>
       <c r="B39" t="n">
         <v>12</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="B40" t="n">
         <v>12</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45849</v>
+        <v>45842</v>
       </c>
       <c r="B41" t="n">
         <v>12</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45850</v>
+        <v>45843</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45851</v>
+        <v>45844</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45852</v>
+        <v>45845</v>
       </c>
       <c r="B44" t="n">
         <v>12</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45853</v>
+        <v>45846</v>
       </c>
       <c r="B45" t="n">
         <v>12</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45854</v>
+        <v>45847</v>
       </c>
       <c r="B46" t="n">
         <v>12</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45855</v>
+        <v>45848</v>
       </c>
       <c r="B47" t="n">
         <v>12</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45856</v>
+        <v>45849</v>
       </c>
       <c r="B48" t="n">
         <v>12</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45857</v>
+        <v>45850</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45858</v>
+        <v>45851</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45859</v>
+        <v>45852</v>
       </c>
       <c r="B51" t="n">
         <v>12</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45860</v>
+        <v>45853</v>
       </c>
       <c r="B52" t="n">
         <v>12</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45861</v>
+        <v>45854</v>
       </c>
       <c r="B53" t="n">
         <v>12</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45862</v>
+        <v>45855</v>
       </c>
       <c r="B54" t="n">
         <v>12</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45863</v>
+        <v>45856</v>
       </c>
       <c r="B55" t="n">
         <v>12</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45864</v>
+        <v>45857</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45865</v>
+        <v>45858</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45866</v>
+        <v>45859</v>
       </c>
       <c r="B58" t="n">
         <v>12</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="B59" t="n">
         <v>12</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45868</v>
+        <v>45861</v>
       </c>
       <c r="B60" t="n">
         <v>12</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45869</v>
+        <v>45862</v>
       </c>
       <c r="B61" t="n">
         <v>12</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45870</v>
+        <v>45863</v>
       </c>
       <c r="B62" t="n">
         <v>12</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45871</v>
+        <v>45864</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45872</v>
+        <v>45865</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45873</v>
+        <v>45866</v>
       </c>
       <c r="B65" t="n">
         <v>12</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45874</v>
+        <v>45867</v>
       </c>
       <c r="B66" t="n">
         <v>12</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45875</v>
+        <v>45868</v>
       </c>
       <c r="B67" t="n">
         <v>12</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45876</v>
+        <v>45869</v>
       </c>
       <c r="B68" t="n">
         <v>12</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45877</v>
+        <v>45870</v>
       </c>
       <c r="B69" t="n">
         <v>12</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45878</v>
+        <v>45871</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45879</v>
+        <v>45872</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45880</v>
+        <v>45873</v>
       </c>
       <c r="B72" t="n">
         <v>12</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45881</v>
+        <v>45874</v>
       </c>
       <c r="B73" t="n">
         <v>12</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45882</v>
+        <v>45875</v>
       </c>
       <c r="B74" t="n">
         <v>12</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45883</v>
+        <v>45876</v>
       </c>
       <c r="B75" t="n">
         <v>12</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45884</v>
+        <v>45877</v>
       </c>
       <c r="B76" t="n">
         <v>12</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45885</v>
+        <v>45878</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45886</v>
+        <v>45879</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45887</v>
+        <v>45880</v>
       </c>
       <c r="B79" t="n">
         <v>12</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45888</v>
+        <v>45881</v>
       </c>
       <c r="B80" t="n">
         <v>12</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
       <c r="B81" t="n">
         <v>12</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
       <c r="B82" t="n">
         <v>12</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="B83" t="n">
         <v>12</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45892</v>
+        <v>45885</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45893</v>
+        <v>45886</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45894</v>
+        <v>45887</v>
       </c>
       <c r="B86" t="n">
         <v>12</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
       <c r="B87" t="n">
         <v>12</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
       <c r="B88" t="n">
         <v>12</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
       <c r="B89" t="n">
         <v>12</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45898</v>
+        <v>45891</v>
       </c>
       <c r="B90" t="n">
         <v>12</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45899</v>
+        <v>45892</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45900</v>
+        <v>45893</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
       <c r="B93" t="n">
         <v>12</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="B94" t="n">
         <v>12</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
       <c r="B95" t="n">
         <v>12</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="B96" t="n">
         <v>12</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="B97" t="n">
         <v>12</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45906</v>
+        <v>45899</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45907</v>
+        <v>45900</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="B100" t="n">
         <v>12</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="B101" t="n">
         <v>12</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="B102" t="n">
         <v>12</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
       <c r="B103" t="n">
         <v>12</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="B104" t="n">
         <v>12</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45913</v>
+        <v>45906</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45914</v>
+        <v>45907</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="B107" t="n">
         <v>12</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="B108" t="n">
         <v>12</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="B109" t="n">
         <v>12</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="B110" t="n">
         <v>12</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="B111" t="n">
         <v>12</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45920</v>
+        <v>45913</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45921</v>
+        <v>45914</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B114" t="n">
         <v>12</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="B115" t="n">
         <v>12</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="B116" t="n">
         <v>12</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45925</v>
+        <v>45918</v>
       </c>
       <c r="B117" t="n">
         <v>12</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45926</v>
+        <v>45919</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
         <v>25</v>
@@ -3680,19 +3680,17 @@
       <c r="D118" t="n">
         <v>37.5</v>
       </c>
-      <c r="E118" t="n">
-        <v>40</v>
-      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45927</v>
+        <v>45920</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3715,7 +3713,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45928</v>
+        <v>45921</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3738,7 +3736,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45929</v>
+        <v>45922</v>
       </c>
       <c r="B121" t="n">
         <v>12</v>
@@ -3759,7 +3757,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
       <c r="B122" t="n">
         <v>12</v>
@@ -3780,7 +3778,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45931</v>
+        <v>45924</v>
       </c>
       <c r="B123" t="n">
         <v>12</v>
@@ -3801,7 +3799,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45932</v>
+        <v>45925</v>
       </c>
       <c r="B124" t="n">
         <v>12</v>
@@ -3822,10 +3820,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45933</v>
+        <v>45926</v>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>25</v>
@@ -3833,17 +3831,19 @@
       <c r="D125" t="n">
         <v>37.5</v>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>40</v>
+      </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45934</v>
+        <v>45927</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45935</v>
+        <v>45928</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45936</v>
+        <v>45929</v>
       </c>
       <c r="B128" t="n">
         <v>12</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45937</v>
+        <v>45930</v>
       </c>
       <c r="B129" t="n">
         <v>12</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45938</v>
+        <v>45931</v>
       </c>
       <c r="B130" t="n">
         <v>12</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45939</v>
+        <v>45932</v>
       </c>
       <c r="B131" t="n">
         <v>12</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45940</v>
+        <v>45933</v>
       </c>
       <c r="B132" t="n">
         <v>12</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45941</v>
+        <v>45934</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45942</v>
+        <v>45935</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45943</v>
+        <v>45936</v>
       </c>
       <c r="B135" t="n">
         <v>12</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="B136" t="n">
         <v>12</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45945</v>
+        <v>45938</v>
       </c>
       <c r="B137" t="n">
         <v>12</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45946</v>
+        <v>45939</v>
       </c>
       <c r="B138" t="n">
         <v>12</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
       <c r="B139" t="n">
         <v>12</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45948</v>
+        <v>45941</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45949</v>
+        <v>45942</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45950</v>
+        <v>45943</v>
       </c>
       <c r="B142" t="n">
         <v>12</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45951</v>
+        <v>45944</v>
       </c>
       <c r="B143" t="n">
         <v>12</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45952</v>
+        <v>45945</v>
       </c>
       <c r="B144" t="n">
         <v>12</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45953</v>
+        <v>45946</v>
       </c>
       <c r="B145" t="n">
         <v>12</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45954</v>
+        <v>45947</v>
       </c>
       <c r="B146" t="n">
         <v>12</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45955</v>
+        <v>45948</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45956</v>
+        <v>45949</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45957</v>
+        <v>45950</v>
       </c>
       <c r="B149" t="n">
         <v>12</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45958</v>
+        <v>45951</v>
       </c>
       <c r="B150" t="n">
         <v>12</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
       <c r="B151" t="n">
         <v>12</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45960</v>
+        <v>45953</v>
       </c>
       <c r="B152" t="n">
         <v>12</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
       <c r="B153" t="n">
         <v>12</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45962</v>
+        <v>45955</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45963</v>
+        <v>45956</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45964</v>
+        <v>45957</v>
       </c>
       <c r="B156" t="n">
         <v>12</v>
@@ -4514,10 +4514,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45965</v>
+        <v>45958</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C157" t="n">
         <v>25</v>
@@ -4525,19 +4525,17 @@
       <c r="D157" t="n">
         <v>37.5</v>
       </c>
-      <c r="E157" t="n">
-        <v>40</v>
-      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="B158" t="n">
         <v>12</v>
@@ -4558,7 +4556,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45967</v>
+        <v>45960</v>
       </c>
       <c r="B159" t="n">
         <v>12</v>
@@ -4579,7 +4577,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45968</v>
+        <v>45961</v>
       </c>
       <c r="B160" t="n">
         <v>12</v>
@@ -4600,7 +4598,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45969</v>
+        <v>45962</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -4623,7 +4621,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45970</v>
+        <v>45963</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -4646,7 +4644,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45971</v>
+        <v>45964</v>
       </c>
       <c r="B163" t="n">
         <v>12</v>
@@ -4667,10 +4665,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45972</v>
+        <v>45965</v>
       </c>
       <c r="B164" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>25</v>
@@ -4678,17 +4676,19 @@
       <c r="D164" t="n">
         <v>37.5</v>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>40</v>
+      </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
       <c r="B165" t="n">
         <v>12</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45974</v>
+        <v>45967</v>
       </c>
       <c r="B166" t="n">
         <v>12</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="B167" t="n">
         <v>12</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45976</v>
+        <v>45969</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45977</v>
+        <v>45970</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45978</v>
+        <v>45971</v>
       </c>
       <c r="B170" t="n">
         <v>12</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45979</v>
+        <v>45972</v>
       </c>
       <c r="B171" t="n">
         <v>12</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
       <c r="B172" t="n">
         <v>12</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45981</v>
+        <v>45974</v>
       </c>
       <c r="B173" t="n">
         <v>12</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45982</v>
+        <v>45975</v>
       </c>
       <c r="B174" t="n">
         <v>12</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45983</v>
+        <v>45976</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45984</v>
+        <v>45977</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45985</v>
+        <v>45978</v>
       </c>
       <c r="B177" t="n">
         <v>12</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45986</v>
+        <v>45979</v>
       </c>
       <c r="B178" t="n">
         <v>12</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="B179" t="n">
         <v>12</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45988</v>
+        <v>45981</v>
       </c>
       <c r="B180" t="n">
         <v>12</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="B181" t="n">
         <v>12</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45992</v>
+        <v>45985</v>
       </c>
       <c r="B184" t="n">
         <v>12</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45993</v>
+        <v>45986</v>
       </c>
       <c r="B185" t="n">
         <v>12</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
       <c r="B186" t="n">
         <v>12</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="B187" t="n">
         <v>12</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45996</v>
+        <v>45989</v>
       </c>
       <c r="B188" t="n">
         <v>12</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45997</v>
+        <v>45990</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45998</v>
+        <v>45991</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="B191" t="n">
         <v>12</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="B192" t="n">
         <v>12</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="B193" t="n">
         <v>12</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>46002</v>
+        <v>45995</v>
       </c>
       <c r="B194" t="n">
         <v>12</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="B195" t="n">
         <v>12</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>46004</v>
+        <v>45997</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>46005</v>
+        <v>45998</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>46006</v>
+        <v>45999</v>
       </c>
       <c r="B198" t="n">
         <v>12</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>46007</v>
+        <v>46000</v>
       </c>
       <c r="B199" t="n">
         <v>12</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="B200" t="n">
         <v>12</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>46009</v>
+        <v>46002</v>
       </c>
       <c r="B201" t="n">
         <v>12</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="B202" t="n">
         <v>12</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>46011</v>
+        <v>46004</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>46012</v>
+        <v>46005</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>46013</v>
+        <v>46006</v>
       </c>
       <c r="B205" t="n">
         <v>12</v>
@@ -5568,6 +5568,157 @@
         <v>0</v>
       </c>
       <c r="G205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12</v>
+      </c>
+      <c r="C206" t="n">
+        <v>25</v>
+      </c>
+      <c r="D206" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>25</v>
+      </c>
+      <c r="D207" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B208" t="n">
+        <v>12</v>
+      </c>
+      <c r="C208" t="n">
+        <v>25</v>
+      </c>
+      <c r="D208" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B209" t="n">
+        <v>12</v>
+      </c>
+      <c r="C209" t="n">
+        <v>25</v>
+      </c>
+      <c r="D209" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>25</v>
+      </c>
+      <c r="D210" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>40</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>25</v>
+      </c>
+      <c r="D211" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>40</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B212" t="n">
+        <v>12</v>
+      </c>
+      <c r="C212" t="n">
+        <v>25</v>
+      </c>
+      <c r="D212" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -20,9 +20,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45803</v>
       </c>
       <c r="B2" t="n">
@@ -1178,7 +1178,6 @@
       <c r="D2" t="n">
         <v>37.5</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -1187,7 +1186,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="B3" t="n">
@@ -1199,7 +1198,6 @@
       <c r="D3" t="n">
         <v>37.5</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1208,7 +1206,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45805</v>
       </c>
       <c r="B4" t="n">
@@ -1220,7 +1218,6 @@
       <c r="D4" t="n">
         <v>37.5</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -1229,7 +1226,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45806</v>
       </c>
       <c r="B5" t="n">
@@ -1241,7 +1238,6 @@
       <c r="D5" t="n">
         <v>37.5</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -1250,7 +1246,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="B6" t="n">
@@ -1262,7 +1258,6 @@
       <c r="D6" t="n">
         <v>37.5</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -1271,7 +1266,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="B7" t="n">
@@ -1294,7 +1289,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45809</v>
       </c>
       <c r="B8" t="n">
@@ -1317,7 +1312,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45810</v>
       </c>
       <c r="B9" t="n">
@@ -1329,7 +1324,6 @@
       <c r="D9" t="n">
         <v>37.5</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1338,7 +1332,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45811</v>
       </c>
       <c r="B10" t="n">
@@ -1350,7 +1344,6 @@
       <c r="D10" t="n">
         <v>37.5</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -1359,7 +1352,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45812</v>
       </c>
       <c r="B11" t="n">
@@ -1371,7 +1364,6 @@
       <c r="D11" t="n">
         <v>37.5</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1380,7 +1372,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45813</v>
       </c>
       <c r="B12" t="n">
@@ -1392,7 +1384,6 @@
       <c r="D12" t="n">
         <v>37.5</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -1401,7 +1392,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="B13" t="n">
@@ -1413,7 +1404,6 @@
       <c r="D13" t="n">
         <v>37.5</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -1422,7 +1412,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45815</v>
       </c>
       <c r="B14" t="n">
@@ -1445,7 +1435,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45816</v>
       </c>
       <c r="B15" t="n">
@@ -1468,7 +1458,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45817</v>
       </c>
       <c r="B16" t="n">
@@ -1491,7 +1481,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45818</v>
       </c>
       <c r="B17" t="n">
@@ -1503,7 +1493,6 @@
       <c r="D17" t="n">
         <v>37.5</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1512,7 +1501,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45819</v>
       </c>
       <c r="B18" t="n">
@@ -1524,7 +1513,6 @@
       <c r="D18" t="n">
         <v>37.5</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -1533,7 +1521,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="B19" t="n">
@@ -1545,7 +1533,6 @@
       <c r="D19" t="n">
         <v>37.5</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -1554,7 +1541,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>45821</v>
       </c>
       <c r="B20" t="n">
@@ -1566,7 +1553,6 @@
       <c r="D20" t="n">
         <v>37.5</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -1575,7 +1561,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>45822</v>
       </c>
       <c r="B21" t="n">
@@ -1598,7 +1584,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>45823</v>
       </c>
       <c r="B22" t="n">
@@ -1621,7 +1607,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="B23" t="n">
@@ -1633,7 +1619,6 @@
       <c r="D23" t="n">
         <v>37.5</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -1642,7 +1627,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>45825</v>
       </c>
       <c r="B24" t="n">
@@ -1654,7 +1639,6 @@
       <c r="D24" t="n">
         <v>37.5</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -1663,7 +1647,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>45826</v>
       </c>
       <c r="B25" t="n">
@@ -1675,7 +1659,6 @@
       <c r="D25" t="n">
         <v>37.5</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>0</v>
       </c>
@@ -1684,7 +1667,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>45827</v>
       </c>
       <c r="B26" t="n">
@@ -1696,7 +1679,6 @@
       <c r="D26" t="n">
         <v>37.5</v>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -1705,7 +1687,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>45828</v>
       </c>
       <c r="B27" t="n">
@@ -1717,7 +1699,6 @@
       <c r="D27" t="n">
         <v>37.5</v>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>0</v>
       </c>
@@ -1726,7 +1707,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>45829</v>
       </c>
       <c r="B28" t="n">
@@ -1749,7 +1730,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="B29" t="n">
@@ -1772,7 +1753,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>45831</v>
       </c>
       <c r="B30" t="n">
@@ -1784,7 +1765,6 @@
       <c r="D30" t="n">
         <v>37.5</v>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -1793,7 +1773,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>45832</v>
       </c>
       <c r="B31" t="n">
@@ -1805,7 +1785,6 @@
       <c r="D31" t="n">
         <v>37.5</v>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
         <v>0</v>
       </c>
@@ -1814,7 +1793,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>45833</v>
       </c>
       <c r="B32" t="n">
@@ -1826,7 +1805,6 @@
       <c r="D32" t="n">
         <v>37.5</v>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -1835,7 +1813,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>45834</v>
       </c>
       <c r="B33" t="n">
@@ -1847,7 +1825,6 @@
       <c r="D33" t="n">
         <v>37.5</v>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -1856,7 +1833,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>45835</v>
       </c>
       <c r="B34" t="n">
@@ -1868,7 +1845,6 @@
       <c r="D34" t="n">
         <v>37.5</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -1877,7 +1853,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>45836</v>
       </c>
       <c r="B35" t="n">
@@ -1900,7 +1876,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>45837</v>
       </c>
       <c r="B36" t="n">
@@ -1923,7 +1899,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>45838</v>
       </c>
       <c r="B37" t="n">
@@ -1935,7 +1911,6 @@
       <c r="D37" t="n">
         <v>37.5</v>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>0</v>
       </c>
@@ -1944,7 +1919,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>45839</v>
       </c>
       <c r="B38" t="n">
@@ -1956,7 +1931,6 @@
       <c r="D38" t="n">
         <v>37.5</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -1965,7 +1939,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>45840</v>
       </c>
       <c r="B39" t="n">
@@ -1977,7 +1951,6 @@
       <c r="D39" t="n">
         <v>37.5</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
         <v>0</v>
       </c>
@@ -1986,7 +1959,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>45841</v>
       </c>
       <c r="B40" t="n">
@@ -1998,7 +1971,6 @@
       <c r="D40" t="n">
         <v>37.5</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
         <v>0</v>
       </c>
@@ -2007,7 +1979,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>45842</v>
       </c>
       <c r="B41" t="n">
@@ -2019,7 +1991,6 @@
       <c r="D41" t="n">
         <v>37.5</v>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -2028,7 +1999,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>45843</v>
       </c>
       <c r="B42" t="n">
@@ -2051,7 +2022,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>45844</v>
       </c>
       <c r="B43" t="n">
@@ -2074,7 +2045,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>45845</v>
       </c>
       <c r="B44" t="n">
@@ -2086,7 +2057,6 @@
       <c r="D44" t="n">
         <v>37.5</v>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -2095,7 +2065,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>45846</v>
       </c>
       <c r="B45" t="n">
@@ -2107,7 +2077,6 @@
       <c r="D45" t="n">
         <v>37.5</v>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
         <v>0</v>
       </c>
@@ -2116,7 +2085,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>45847</v>
       </c>
       <c r="B46" t="n">
@@ -2128,7 +2097,6 @@
       <c r="D46" t="n">
         <v>37.5</v>
       </c>
-      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
         <v>0</v>
       </c>
@@ -2137,7 +2105,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>45848</v>
       </c>
       <c r="B47" t="n">
@@ -2149,7 +2117,6 @@
       <c r="D47" t="n">
         <v>37.5</v>
       </c>
-      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
         <v>0</v>
       </c>
@@ -2158,7 +2125,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>45849</v>
       </c>
       <c r="B48" t="n">
@@ -2170,7 +2137,6 @@
       <c r="D48" t="n">
         <v>37.5</v>
       </c>
-      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
@@ -2179,7 +2145,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>45850</v>
       </c>
       <c r="B49" t="n">
@@ -2202,7 +2168,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>45851</v>
       </c>
       <c r="B50" t="n">
@@ -2225,7 +2191,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>45852</v>
       </c>
       <c r="B51" t="n">
@@ -2237,7 +2203,6 @@
       <c r="D51" t="n">
         <v>37.5</v>
       </c>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
@@ -2246,7 +2211,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>45853</v>
       </c>
       <c r="B52" t="n">
@@ -2258,7 +2223,6 @@
       <c r="D52" t="n">
         <v>37.5</v>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
@@ -2267,7 +2231,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>45854</v>
       </c>
       <c r="B53" t="n">
@@ -2279,7 +2243,6 @@
       <c r="D53" t="n">
         <v>37.5</v>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
@@ -2288,7 +2251,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>45855</v>
       </c>
       <c r="B54" t="n">
@@ -2300,7 +2263,6 @@
       <c r="D54" t="n">
         <v>37.5</v>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
@@ -2309,7 +2271,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>45856</v>
       </c>
       <c r="B55" t="n">
@@ -2321,7 +2283,6 @@
       <c r="D55" t="n">
         <v>37.5</v>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
@@ -2330,7 +2291,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>45857</v>
       </c>
       <c r="B56" t="n">
@@ -2353,7 +2314,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>45858</v>
       </c>
       <c r="B57" t="n">
@@ -2376,7 +2337,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>45859</v>
       </c>
       <c r="B58" t="n">
@@ -2388,7 +2349,6 @@
       <c r="D58" t="n">
         <v>37.5</v>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
@@ -2397,7 +2357,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>45860</v>
       </c>
       <c r="B59" t="n">
@@ -2409,7 +2369,6 @@
       <c r="D59" t="n">
         <v>37.5</v>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>0</v>
       </c>
@@ -2418,7 +2377,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>45861</v>
       </c>
       <c r="B60" t="n">
@@ -2430,7 +2389,6 @@
       <c r="D60" t="n">
         <v>37.5</v>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
         <v>0</v>
       </c>
@@ -2439,7 +2397,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>45862</v>
       </c>
       <c r="B61" t="n">
@@ -2451,7 +2409,6 @@
       <c r="D61" t="n">
         <v>37.5</v>
       </c>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
         <v>0</v>
       </c>
@@ -2460,7 +2417,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>45863</v>
       </c>
       <c r="B62" t="n">
@@ -2472,7 +2429,6 @@
       <c r="D62" t="n">
         <v>37.5</v>
       </c>
-      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>0</v>
       </c>
@@ -2481,7 +2437,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>45864</v>
       </c>
       <c r="B63" t="n">
@@ -2504,7 +2460,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>45865</v>
       </c>
       <c r="B64" t="n">
@@ -2527,7 +2483,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>45866</v>
       </c>
       <c r="B65" t="n">
@@ -2539,7 +2495,6 @@
       <c r="D65" t="n">
         <v>37.5</v>
       </c>
-      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
         <v>0</v>
       </c>
@@ -2548,7 +2503,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>45867</v>
       </c>
       <c r="B66" t="n">
@@ -2560,7 +2515,6 @@
       <c r="D66" t="n">
         <v>37.5</v>
       </c>
-      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
@@ -2569,7 +2523,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>45868</v>
       </c>
       <c r="B67" t="n">
@@ -2581,7 +2535,6 @@
       <c r="D67" t="n">
         <v>37.5</v>
       </c>
-      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
         <v>0</v>
       </c>
@@ -2590,7 +2543,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>45869</v>
       </c>
       <c r="B68" t="n">
@@ -2602,7 +2555,6 @@
       <c r="D68" t="n">
         <v>37.5</v>
       </c>
-      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -2611,7 +2563,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="B69" t="n">
@@ -2623,7 +2575,6 @@
       <c r="D69" t="n">
         <v>37.5</v>
       </c>
-      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
         <v>0</v>
       </c>
@@ -2632,7 +2583,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>45871</v>
       </c>
       <c r="B70" t="n">
@@ -2655,7 +2606,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>45872</v>
       </c>
       <c r="B71" t="n">
@@ -2678,7 +2629,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="B72" t="n">
@@ -2690,7 +2641,6 @@
       <c r="D72" t="n">
         <v>37.5</v>
       </c>
-      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
         <v>0</v>
       </c>
@@ -2699,7 +2649,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>45874</v>
       </c>
       <c r="B73" t="n">
@@ -2711,7 +2661,6 @@
       <c r="D73" t="n">
         <v>37.5</v>
       </c>
-      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
         <v>0</v>
       </c>
@@ -2720,7 +2669,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>45875</v>
       </c>
       <c r="B74" t="n">
@@ -2732,7 +2681,6 @@
       <c r="D74" t="n">
         <v>37.5</v>
       </c>
-      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
         <v>0</v>
       </c>
@@ -2741,7 +2689,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>45876</v>
       </c>
       <c r="B75" t="n">
@@ -2753,7 +2701,6 @@
       <c r="D75" t="n">
         <v>37.5</v>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
         <v>0</v>
       </c>
@@ -2762,7 +2709,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>45877</v>
       </c>
       <c r="B76" t="n">
@@ -2774,7 +2721,6 @@
       <c r="D76" t="n">
         <v>37.5</v>
       </c>
-      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
         <v>0</v>
       </c>
@@ -2783,7 +2729,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>45878</v>
       </c>
       <c r="B77" t="n">
@@ -2806,7 +2752,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>45879</v>
       </c>
       <c r="B78" t="n">
@@ -2829,7 +2775,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>45880</v>
       </c>
       <c r="B79" t="n">
@@ -2841,7 +2787,6 @@
       <c r="D79" t="n">
         <v>37.5</v>
       </c>
-      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
         <v>0</v>
       </c>
@@ -2850,7 +2795,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>45881</v>
       </c>
       <c r="B80" t="n">
@@ -2862,7 +2807,6 @@
       <c r="D80" t="n">
         <v>37.5</v>
       </c>
-      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
         <v>0</v>
       </c>
@@ -2871,7 +2815,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>45882</v>
       </c>
       <c r="B81" t="n">
@@ -2883,7 +2827,6 @@
       <c r="D81" t="n">
         <v>37.5</v>
       </c>
-      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
         <v>0</v>
       </c>
@@ -2892,7 +2835,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>45883</v>
       </c>
       <c r="B82" t="n">
@@ -2904,7 +2847,6 @@
       <c r="D82" t="n">
         <v>37.5</v>
       </c>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
         <v>0</v>
       </c>
@@ -2913,7 +2855,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>45884</v>
       </c>
       <c r="B83" t="n">
@@ -2925,7 +2867,6 @@
       <c r="D83" t="n">
         <v>37.5</v>
       </c>
-      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
         <v>0</v>
       </c>
@@ -2934,7 +2875,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>45885</v>
       </c>
       <c r="B84" t="n">
@@ -2957,7 +2898,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="B85" t="n">
@@ -2980,7 +2921,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="B86" t="n">
@@ -2992,7 +2933,6 @@
       <c r="D86" t="n">
         <v>37.5</v>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
         <v>0</v>
       </c>
@@ -3001,7 +2941,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>45888</v>
       </c>
       <c r="B87" t="n">
@@ -3013,7 +2953,6 @@
       <c r="D87" t="n">
         <v>37.5</v>
       </c>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
         <v>0</v>
       </c>
@@ -3022,7 +2961,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>45889</v>
       </c>
       <c r="B88" t="n">
@@ -3034,7 +2973,6 @@
       <c r="D88" t="n">
         <v>37.5</v>
       </c>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
         <v>0</v>
       </c>
@@ -3043,7 +2981,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>45890</v>
       </c>
       <c r="B89" t="n">
@@ -3055,7 +2993,6 @@
       <c r="D89" t="n">
         <v>37.5</v>
       </c>
-      <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
         <v>0</v>
       </c>
@@ -3064,7 +3001,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>45891</v>
       </c>
       <c r="B90" t="n">
@@ -3076,7 +3013,6 @@
       <c r="D90" t="n">
         <v>37.5</v>
       </c>
-      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
         <v>0</v>
       </c>
@@ -3085,7 +3021,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>45892</v>
       </c>
       <c r="B91" t="n">
@@ -3108,7 +3044,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>45893</v>
       </c>
       <c r="B92" t="n">
@@ -3131,7 +3067,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>45894</v>
       </c>
       <c r="B93" t="n">
@@ -3143,7 +3079,6 @@
       <c r="D93" t="n">
         <v>37.5</v>
       </c>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
         <v>0</v>
       </c>
@@ -3152,7 +3087,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>45895</v>
       </c>
       <c r="B94" t="n">
@@ -3164,7 +3099,6 @@
       <c r="D94" t="n">
         <v>37.5</v>
       </c>
-      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
         <v>0</v>
       </c>
@@ -3173,7 +3107,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="B95" t="n">
@@ -3185,7 +3119,6 @@
       <c r="D95" t="n">
         <v>37.5</v>
       </c>
-      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
         <v>0</v>
       </c>
@@ -3194,7 +3127,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="B96" t="n">
@@ -3206,7 +3139,6 @@
       <c r="D96" t="n">
         <v>37.5</v>
       </c>
-      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
         <v>0</v>
       </c>
@@ -3215,7 +3147,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>45898</v>
       </c>
       <c r="B97" t="n">
@@ -3227,7 +3159,6 @@
       <c r="D97" t="n">
         <v>37.5</v>
       </c>
-      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
         <v>0</v>
       </c>
@@ -3236,7 +3167,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>45899</v>
       </c>
       <c r="B98" t="n">
@@ -3259,7 +3190,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="B99" t="n">
@@ -3282,7 +3213,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>45901</v>
       </c>
       <c r="B100" t="n">
@@ -3294,7 +3225,6 @@
       <c r="D100" t="n">
         <v>37.5</v>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
         <v>0</v>
       </c>
@@ -3303,7 +3233,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="B101" t="n">
@@ -3315,7 +3245,6 @@
       <c r="D101" t="n">
         <v>37.5</v>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
         <v>0</v>
       </c>
@@ -3324,7 +3253,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>45903</v>
       </c>
       <c r="B102" t="n">
@@ -3336,7 +3265,6 @@
       <c r="D102" t="n">
         <v>37.5</v>
       </c>
-      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
         <v>0</v>
       </c>
@@ -3345,7 +3273,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="B103" t="n">
@@ -3357,7 +3285,6 @@
       <c r="D103" t="n">
         <v>37.5</v>
       </c>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
         <v>0</v>
       </c>
@@ -3366,7 +3293,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>45905</v>
       </c>
       <c r="B104" t="n">
@@ -3378,7 +3305,6 @@
       <c r="D104" t="n">
         <v>37.5</v>
       </c>
-      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
         <v>0</v>
       </c>
@@ -3387,7 +3313,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>45906</v>
       </c>
       <c r="B105" t="n">
@@ -3410,7 +3336,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>45907</v>
       </c>
       <c r="B106" t="n">
@@ -3433,7 +3359,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>45908</v>
       </c>
       <c r="B107" t="n">
@@ -3445,7 +3371,6 @@
       <c r="D107" t="n">
         <v>37.5</v>
       </c>
-      <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
         <v>0</v>
       </c>
@@ -3454,7 +3379,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>45909</v>
       </c>
       <c r="B108" t="n">
@@ -3466,7 +3391,6 @@
       <c r="D108" t="n">
         <v>37.5</v>
       </c>
-      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
         <v>0</v>
       </c>
@@ -3475,7 +3399,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="B109" t="n">
@@ -3487,7 +3411,6 @@
       <c r="D109" t="n">
         <v>37.5</v>
       </c>
-      <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
         <v>0</v>
       </c>
@@ -3496,7 +3419,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="B110" t="n">
@@ -3508,7 +3431,6 @@
       <c r="D110" t="n">
         <v>37.5</v>
       </c>
-      <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
         <v>0</v>
       </c>
@@ -3517,7 +3439,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="B111" t="n">
@@ -3529,7 +3451,6 @@
       <c r="D111" t="n">
         <v>37.5</v>
       </c>
-      <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
         <v>0</v>
       </c>
@@ -3538,7 +3459,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>45913</v>
       </c>
       <c r="B112" t="n">
@@ -3561,7 +3482,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>45914</v>
       </c>
       <c r="B113" t="n">
@@ -3584,7 +3505,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>45915</v>
       </c>
       <c r="B114" t="n">
@@ -3596,7 +3517,6 @@
       <c r="D114" t="n">
         <v>37.5</v>
       </c>
-      <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
         <v>0</v>
       </c>
@@ -3605,7 +3525,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>45916</v>
       </c>
       <c r="B115" t="n">
@@ -3617,7 +3537,6 @@
       <c r="D115" t="n">
         <v>37.5</v>
       </c>
-      <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
         <v>0</v>
       </c>
@@ -3626,7 +3545,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>45917</v>
       </c>
       <c r="B116" t="n">
@@ -3638,7 +3557,6 @@
       <c r="D116" t="n">
         <v>37.5</v>
       </c>
-      <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
         <v>0</v>
       </c>
@@ -3647,7 +3565,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="B117" t="n">
@@ -3659,7 +3577,6 @@
       <c r="D117" t="n">
         <v>37.5</v>
       </c>
-      <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
         <v>0</v>
       </c>
@@ -3668,7 +3585,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>45919</v>
       </c>
       <c r="B118" t="n">
@@ -3680,7 +3597,6 @@
       <c r="D118" t="n">
         <v>37.5</v>
       </c>
-      <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
         <v>0</v>
       </c>
@@ -3689,7 +3605,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>45920</v>
       </c>
       <c r="B119" t="n">
@@ -3712,7 +3628,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>45921</v>
       </c>
       <c r="B120" t="n">
@@ -3735,7 +3651,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>45922</v>
       </c>
       <c r="B121" t="n">
@@ -3747,7 +3663,6 @@
       <c r="D121" t="n">
         <v>37.5</v>
       </c>
-      <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
         <v>0</v>
       </c>
@@ -3756,7 +3671,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>45923</v>
       </c>
       <c r="B122" t="n">
@@ -3768,7 +3683,6 @@
       <c r="D122" t="n">
         <v>37.5</v>
       </c>
-      <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
         <v>0</v>
       </c>
@@ -3777,7 +3691,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>45924</v>
       </c>
       <c r="B123" t="n">
@@ -3789,7 +3703,6 @@
       <c r="D123" t="n">
         <v>37.5</v>
       </c>
-      <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
         <v>0</v>
       </c>
@@ -3798,7 +3711,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>45925</v>
       </c>
       <c r="B124" t="n">
@@ -3810,7 +3723,6 @@
       <c r="D124" t="n">
         <v>37.5</v>
       </c>
-      <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
         <v>0</v>
       </c>
@@ -3819,7 +3731,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>45926</v>
       </c>
       <c r="B125" t="n">
@@ -3842,7 +3754,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>45927</v>
       </c>
       <c r="B126" t="n">
@@ -3865,7 +3777,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="B127" t="n">
@@ -3888,7 +3800,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="B128" t="n">
@@ -3900,7 +3812,6 @@
       <c r="D128" t="n">
         <v>37.5</v>
       </c>
-      <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
         <v>0</v>
       </c>
@@ -3909,7 +3820,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="B129" t="n">
@@ -3921,7 +3832,6 @@
       <c r="D129" t="n">
         <v>37.5</v>
       </c>
-      <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
         <v>0</v>
       </c>
@@ -3930,7 +3840,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>45931</v>
       </c>
       <c r="B130" t="n">
@@ -3942,7 +3852,6 @@
       <c r="D130" t="n">
         <v>37.5</v>
       </c>
-      <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
         <v>0</v>
       </c>
@@ -3951,7 +3860,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>45932</v>
       </c>
       <c r="B131" t="n">
@@ -3963,7 +3872,6 @@
       <c r="D131" t="n">
         <v>37.5</v>
       </c>
-      <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
         <v>0</v>
       </c>
@@ -3972,7 +3880,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>45933</v>
       </c>
       <c r="B132" t="n">
@@ -3984,7 +3892,6 @@
       <c r="D132" t="n">
         <v>37.5</v>
       </c>
-      <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
         <v>0</v>
       </c>
@@ -3993,7 +3900,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>45934</v>
       </c>
       <c r="B133" t="n">
@@ -4016,7 +3923,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>45935</v>
       </c>
       <c r="B134" t="n">
@@ -4039,7 +3946,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>45936</v>
       </c>
       <c r="B135" t="n">
@@ -4051,7 +3958,6 @@
       <c r="D135" t="n">
         <v>37.5</v>
       </c>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
         <v>0</v>
       </c>
@@ -4060,7 +3966,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>45937</v>
       </c>
       <c r="B136" t="n">
@@ -4072,7 +3978,6 @@
       <c r="D136" t="n">
         <v>37.5</v>
       </c>
-      <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
         <v>0</v>
       </c>
@@ -4081,7 +3986,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>45938</v>
       </c>
       <c r="B137" t="n">
@@ -4093,7 +3998,6 @@
       <c r="D137" t="n">
         <v>37.5</v>
       </c>
-      <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
         <v>0</v>
       </c>
@@ -4102,7 +4006,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>45939</v>
       </c>
       <c r="B138" t="n">
@@ -4114,7 +4018,6 @@
       <c r="D138" t="n">
         <v>37.5</v>
       </c>
-      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
         <v>0</v>
       </c>
@@ -4123,7 +4026,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>45940</v>
       </c>
       <c r="B139" t="n">
@@ -4135,7 +4038,6 @@
       <c r="D139" t="n">
         <v>37.5</v>
       </c>
-      <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
         <v>0</v>
       </c>
@@ -4144,7 +4046,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>45941</v>
       </c>
       <c r="B140" t="n">
@@ -4167,7 +4069,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="B141" t="n">
@@ -4190,7 +4092,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>45943</v>
       </c>
       <c r="B142" t="n">
@@ -4202,7 +4104,6 @@
       <c r="D142" t="n">
         <v>37.5</v>
       </c>
-      <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
         <v>0</v>
       </c>
@@ -4211,7 +4112,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>45944</v>
       </c>
       <c r="B143" t="n">
@@ -4223,7 +4124,6 @@
       <c r="D143" t="n">
         <v>37.5</v>
       </c>
-      <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
         <v>0</v>
       </c>
@@ -4232,7 +4132,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>45945</v>
       </c>
       <c r="B144" t="n">
@@ -4244,7 +4144,6 @@
       <c r="D144" t="n">
         <v>37.5</v>
       </c>
-      <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
         <v>0</v>
       </c>
@@ -4253,7 +4152,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="B145" t="n">
@@ -4265,7 +4164,6 @@
       <c r="D145" t="n">
         <v>37.5</v>
       </c>
-      <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
         <v>0</v>
       </c>
@@ -4274,7 +4172,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>45947</v>
       </c>
       <c r="B146" t="n">
@@ -4286,7 +4184,6 @@
       <c r="D146" t="n">
         <v>37.5</v>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
         <v>0</v>
       </c>
@@ -4295,7 +4192,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>45948</v>
       </c>
       <c r="B147" t="n">
@@ -4318,7 +4215,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>45949</v>
       </c>
       <c r="B148" t="n">
@@ -4341,7 +4238,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>45950</v>
       </c>
       <c r="B149" t="n">
@@ -4353,7 +4250,6 @@
       <c r="D149" t="n">
         <v>37.5</v>
       </c>
-      <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
         <v>0</v>
       </c>
@@ -4362,7 +4258,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>45951</v>
       </c>
       <c r="B150" t="n">
@@ -4374,7 +4270,6 @@
       <c r="D150" t="n">
         <v>37.5</v>
       </c>
-      <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
         <v>0</v>
       </c>
@@ -4383,7 +4278,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>45952</v>
       </c>
       <c r="B151" t="n">
@@ -4395,7 +4290,6 @@
       <c r="D151" t="n">
         <v>37.5</v>
       </c>
-      <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
         <v>0</v>
       </c>
@@ -4404,7 +4298,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>45953</v>
       </c>
       <c r="B152" t="n">
@@ -4416,7 +4310,6 @@
       <c r="D152" t="n">
         <v>37.5</v>
       </c>
-      <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
         <v>0</v>
       </c>
@@ -4425,7 +4318,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>45954</v>
       </c>
       <c r="B153" t="n">
@@ -4437,7 +4330,6 @@
       <c r="D153" t="n">
         <v>37.5</v>
       </c>
-      <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
         <v>0</v>
       </c>
@@ -4446,7 +4338,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>45955</v>
       </c>
       <c r="B154" t="n">
@@ -4469,7 +4361,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>45956</v>
       </c>
       <c r="B155" t="n">
@@ -4492,7 +4384,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>45957</v>
       </c>
       <c r="B156" t="n">
@@ -4504,7 +4396,6 @@
       <c r="D156" t="n">
         <v>37.5</v>
       </c>
-      <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
         <v>0</v>
       </c>
@@ -4513,7 +4404,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>45958</v>
       </c>
       <c r="B157" t="n">
@@ -4525,7 +4416,6 @@
       <c r="D157" t="n">
         <v>37.5</v>
       </c>
-      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
         <v>0</v>
       </c>
@@ -4534,7 +4424,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>45959</v>
       </c>
       <c r="B158" t="n">
@@ -4546,7 +4436,6 @@
       <c r="D158" t="n">
         <v>37.5</v>
       </c>
-      <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
         <v>0</v>
       </c>
@@ -4555,7 +4444,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>45960</v>
       </c>
       <c r="B159" t="n">
@@ -4567,7 +4456,6 @@
       <c r="D159" t="n">
         <v>37.5</v>
       </c>
-      <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
         <v>0</v>
       </c>
@@ -4576,7 +4464,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>45961</v>
       </c>
       <c r="B160" t="n">
@@ -4588,7 +4476,6 @@
       <c r="D160" t="n">
         <v>37.5</v>
       </c>
-      <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
         <v>0</v>
       </c>
@@ -4597,7 +4484,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="3" t="n">
         <v>45962</v>
       </c>
       <c r="B161" t="n">
@@ -4620,7 +4507,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="3" t="n">
         <v>45963</v>
       </c>
       <c r="B162" t="n">
@@ -4643,7 +4530,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="3" t="n">
         <v>45964</v>
       </c>
       <c r="B163" t="n">
@@ -4655,7 +4542,6 @@
       <c r="D163" t="n">
         <v>37.5</v>
       </c>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
         <v>0</v>
       </c>
@@ -4664,7 +4550,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="3" t="n">
         <v>45965</v>
       </c>
       <c r="B164" t="n">
@@ -4687,7 +4573,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="3" t="n">
         <v>45966</v>
       </c>
       <c r="B165" t="n">
@@ -4699,7 +4585,6 @@
       <c r="D165" t="n">
         <v>37.5</v>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
         <v>0</v>
       </c>
@@ -4708,7 +4593,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="3" t="n">
         <v>45967</v>
       </c>
       <c r="B166" t="n">
@@ -4720,7 +4605,6 @@
       <c r="D166" t="n">
         <v>37.5</v>
       </c>
-      <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
         <v>0</v>
       </c>
@@ -4729,7 +4613,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="B167" t="n">
@@ -4741,7 +4625,6 @@
       <c r="D167" t="n">
         <v>37.5</v>
       </c>
-      <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
         <v>0</v>
       </c>
@@ -4750,7 +4633,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="3" t="n">
         <v>45969</v>
       </c>
       <c r="B168" t="n">
@@ -4773,7 +4656,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="3" t="n">
         <v>45970</v>
       </c>
       <c r="B169" t="n">
@@ -4796,7 +4679,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="B170" t="n">
@@ -4808,7 +4691,6 @@
       <c r="D170" t="n">
         <v>37.5</v>
       </c>
-      <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
         <v>0</v>
       </c>
@@ -4817,7 +4699,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="3" t="n">
         <v>45972</v>
       </c>
       <c r="B171" t="n">
@@ -4829,7 +4711,6 @@
       <c r="D171" t="n">
         <v>37.5</v>
       </c>
-      <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
         <v>0</v>
       </c>
@@ -4838,7 +4719,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="3" t="n">
         <v>45973</v>
       </c>
       <c r="B172" t="n">
@@ -4850,7 +4731,6 @@
       <c r="D172" t="n">
         <v>37.5</v>
       </c>
-      <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
         <v>0</v>
       </c>
@@ -4859,7 +4739,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="3" t="n">
         <v>45974</v>
       </c>
       <c r="B173" t="n">
@@ -4871,7 +4751,6 @@
       <c r="D173" t="n">
         <v>37.5</v>
       </c>
-      <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
         <v>0</v>
       </c>
@@ -4880,7 +4759,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="3" t="n">
         <v>45975</v>
       </c>
       <c r="B174" t="n">
@@ -4892,7 +4771,6 @@
       <c r="D174" t="n">
         <v>37.5</v>
       </c>
-      <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
         <v>0</v>
       </c>
@@ -4901,7 +4779,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="B175" t="n">
@@ -4924,7 +4802,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="B176" t="n">
@@ -4947,7 +4825,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="3" t="n">
         <v>45978</v>
       </c>
       <c r="B177" t="n">
@@ -4959,7 +4837,6 @@
       <c r="D177" t="n">
         <v>37.5</v>
       </c>
-      <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
         <v>0</v>
       </c>
@@ -4968,7 +4845,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="B178" t="n">
@@ -4980,7 +4857,6 @@
       <c r="D178" t="n">
         <v>37.5</v>
       </c>
-      <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
         <v>0</v>
       </c>
@@ -4989,7 +4865,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="3" t="n">
         <v>45980</v>
       </c>
       <c r="B179" t="n">
@@ -5001,7 +4877,6 @@
       <c r="D179" t="n">
         <v>37.5</v>
       </c>
-      <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
         <v>0</v>
       </c>
@@ -5010,7 +4885,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="3" t="n">
         <v>45981</v>
       </c>
       <c r="B180" t="n">
@@ -5022,7 +4897,6 @@
       <c r="D180" t="n">
         <v>37.5</v>
       </c>
-      <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
         <v>0</v>
       </c>
@@ -5031,7 +4905,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="3" t="n">
         <v>45982</v>
       </c>
       <c r="B181" t="n">
@@ -5043,7 +4917,6 @@
       <c r="D181" t="n">
         <v>37.5</v>
       </c>
-      <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
         <v>0</v>
       </c>
@@ -5052,7 +4925,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="B182" t="n">
@@ -5075,7 +4948,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="B183" t="n">
@@ -5098,7 +4971,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="3" t="n">
         <v>45985</v>
       </c>
       <c r="B184" t="n">
@@ -5110,7 +4983,6 @@
       <c r="D184" t="n">
         <v>37.5</v>
       </c>
-      <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
         <v>0</v>
       </c>
@@ -5119,7 +4991,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="B185" t="n">
@@ -5131,7 +5003,6 @@
       <c r="D185" t="n">
         <v>37.5</v>
       </c>
-      <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
         <v>0</v>
       </c>
@@ -5140,7 +5011,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="B186" t="n">
@@ -5152,7 +5023,6 @@
       <c r="D186" t="n">
         <v>37.5</v>
       </c>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
         <v>0</v>
       </c>
@@ -5161,7 +5031,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="3" t="n">
         <v>45988</v>
       </c>
       <c r="B187" t="n">
@@ -5173,7 +5043,6 @@
       <c r="D187" t="n">
         <v>37.5</v>
       </c>
-      <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
         <v>0</v>
       </c>
@@ -5182,7 +5051,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="3" t="n">
         <v>45989</v>
       </c>
       <c r="B188" t="n">
@@ -5194,7 +5063,6 @@
       <c r="D188" t="n">
         <v>37.5</v>
       </c>
-      <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
         <v>0</v>
       </c>
@@ -5203,7 +5071,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="B189" t="n">
@@ -5226,7 +5094,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="B190" t="n">
@@ -5249,7 +5117,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="3" t="n">
         <v>45992</v>
       </c>
       <c r="B191" t="n">
@@ -5261,7 +5129,6 @@
       <c r="D191" t="n">
         <v>37.5</v>
       </c>
-      <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
         <v>0</v>
       </c>
@@ -5270,7 +5137,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="B192" t="n">
@@ -5282,7 +5149,6 @@
       <c r="D192" t="n">
         <v>37.5</v>
       </c>
-      <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
         <v>0</v>
       </c>
@@ -5291,7 +5157,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="B193" t="n">
@@ -5303,7 +5169,6 @@
       <c r="D193" t="n">
         <v>37.5</v>
       </c>
-      <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
         <v>0</v>
       </c>
@@ -5312,7 +5177,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="3" t="n">
         <v>45995</v>
       </c>
       <c r="B194" t="n">
@@ -5324,7 +5189,6 @@
       <c r="D194" t="n">
         <v>37.5</v>
       </c>
-      <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
         <v>0</v>
       </c>
@@ -5333,7 +5197,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="B195" t="n">
@@ -5345,7 +5209,6 @@
       <c r="D195" t="n">
         <v>37.5</v>
       </c>
-      <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
         <v>0</v>
       </c>
@@ -5354,7 +5217,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="3" t="n">
         <v>45997</v>
       </c>
       <c r="B196" t="n">
@@ -5377,7 +5240,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="B197" t="n">
@@ -5400,7 +5263,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="B198" t="n">
@@ -5412,7 +5275,6 @@
       <c r="D198" t="n">
         <v>37.5</v>
       </c>
-      <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
         <v>0</v>
       </c>
@@ -5421,7 +5283,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="3" t="n">
         <v>46000</v>
       </c>
       <c r="B199" t="n">
@@ -5433,7 +5295,6 @@
       <c r="D199" t="n">
         <v>37.5</v>
       </c>
-      <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
         <v>0</v>
       </c>
@@ -5442,7 +5303,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="B200" t="n">
@@ -5454,7 +5315,6 @@
       <c r="D200" t="n">
         <v>37.5</v>
       </c>
-      <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
         <v>0</v>
       </c>
@@ -5463,7 +5323,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="3" t="n">
         <v>46002</v>
       </c>
       <c r="B201" t="n">
@@ -5475,7 +5335,6 @@
       <c r="D201" t="n">
         <v>37.5</v>
       </c>
-      <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
         <v>0</v>
       </c>
@@ -5484,7 +5343,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="3" t="n">
         <v>46003</v>
       </c>
       <c r="B202" t="n">
@@ -5496,7 +5355,6 @@
       <c r="D202" t="n">
         <v>37.5</v>
       </c>
-      <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
         <v>0</v>
       </c>
@@ -5505,7 +5363,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="3" t="n">
         <v>46004</v>
       </c>
       <c r="B203" t="n">
@@ -5528,7 +5386,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="B204" t="n">
@@ -5551,7 +5409,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="B205" t="n">
@@ -5563,7 +5421,6 @@
       <c r="D205" t="n">
         <v>37.5</v>
       </c>
-      <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
         <v>0</v>
       </c>
@@ -5572,7 +5429,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="3" t="n">
         <v>46007</v>
       </c>
       <c r="B206" t="n">
@@ -5584,7 +5441,6 @@
       <c r="D206" t="n">
         <v>37.5</v>
       </c>
-      <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
         <v>0</v>
       </c>
@@ -5593,7 +5449,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="B207" t="n">
@@ -5605,7 +5461,6 @@
       <c r="D207" t="n">
         <v>37.5</v>
       </c>
-      <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
         <v>0</v>
       </c>
@@ -5614,7 +5469,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="B208" t="n">
@@ -5626,7 +5481,6 @@
       <c r="D208" t="n">
         <v>37.5</v>
       </c>
-      <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
         <v>0</v>
       </c>
@@ -5635,7 +5489,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="3" t="n">
         <v>46010</v>
       </c>
       <c r="B209" t="n">
@@ -5647,7 +5501,6 @@
       <c r="D209" t="n">
         <v>37.5</v>
       </c>
-      <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
         <v>0</v>
       </c>
@@ -5656,7 +5509,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="B210" t="n">
@@ -5679,7 +5532,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="B211" t="n">
@@ -5702,7 +5555,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="3" t="n">
         <v>46013</v>
       </c>
       <c r="B212" t="n">
@@ -5714,7 +5567,6 @@
       <c r="D212" t="n">
         <v>37.5</v>
       </c>
-      <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
         <v>0</v>
       </c>
@@ -5843,8 +5695,6 @@
       <c r="H2" t="n">
         <v>0.3</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>44</v>
       </c>
@@ -5890,8 +5740,6 @@
       <c r="H3" t="n">
         <v>0.3</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>44</v>
       </c>
@@ -5992,8 +5840,6 @@
       <c r="H5" t="n">
         <v>0.3</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>44</v>
       </c>
@@ -6039,8 +5885,6 @@
       <c r="H6" t="n">
         <v>0.3</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>44</v>
       </c>
@@ -6091,7 +5935,6 @@
           <t>monday</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>44</v>
       </c>
@@ -6142,7 +5985,6 @@
           <t>tuesday</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>44</v>
       </c>
@@ -6193,7 +6035,6 @@
           <t>wednesday</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>44</v>
       </c>
@@ -6244,7 +6085,6 @@
           <t>thursday</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>44</v>
       </c>
@@ -6295,7 +6135,6 @@
           <t>friday</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>44</v>
       </c>
@@ -6346,7 +6185,6 @@
           <t>friday</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>44</v>
       </c>
@@ -6535,7 +6373,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.002</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -563,7 +563,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>50000</v>
       </c>
@@ -589,7 +588,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>50000</v>
       </c>
@@ -615,7 +613,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>30000</v>
       </c>
@@ -641,7 +638,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>15000</v>
       </c>
@@ -667,7 +663,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>35000</v>
       </c>
@@ -693,7 +688,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>25000</v>
       </c>
@@ -719,7 +713,6 @@
           <t>both</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>10000</v>
       </c>
@@ -745,7 +738,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>40000</v>
       </c>
@@ -771,7 +763,6 @@
           <t>both</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>15000</v>
       </c>
@@ -797,7 +788,6 @@
           <t>both</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>50000</v>
       </c>
@@ -13589,6 +13579,11 @@
       <c r="H2" t="n">
         <v>0.3</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>monday</t>
+        </is>
+      </c>
       <c r="K2" t="n">
         <v>44</v>
       </c>
@@ -13632,6 +13627,11 @@
       <c r="H3" t="n">
         <v>0.3</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>tuesday</t>
+        </is>
+      </c>
       <c r="K3" t="n">
         <v>44</v>
       </c>
@@ -13728,6 +13728,11 @@
       <c r="H5" t="n">
         <v>0.3</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>thursday</t>
+        </is>
+      </c>
       <c r="K5" t="n">
         <v>44</v>
       </c>
@@ -13770,6 +13775,11 @@
       </c>
       <c r="H6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>friday</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>44</v>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -14287,7 +14287,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>ambient</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>ambient</t>
         </is>
       </c>
       <c r="F11" t="n">

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>ambient</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -785,7 +785,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>frozen</t>
         </is>
       </c>
       <c r="F12" t="n">

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,21 @@
           <t>capacity</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>daily_startup_hours</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>daily_shutdown_hours</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>default_changeover_hours</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -540,6 +555,15 @@
       </c>
       <c r="F2" t="n">
         <v>100000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14090,7 +14114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14099,17 +14123,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>cost_type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -14292,6 +14316,51 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>$/unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>storage_cost_fixed_per_pallet</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$/pallet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>storage_cost_per_pallet_day_frozen</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$/pallet/day</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>storage_cost_per_pallet_day_ambient</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$/pallet/day</t>
         </is>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -14114,7 +14114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14361,6 +14361,36 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>$/pallet/day</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>storage_cost_fixed_per_pallet_frozen</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$/pallet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>storage_cost_fixed_per_pallet_ambient</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$/pallet</t>
         </is>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -14114,7 +14114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14157,238 +14157,133 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>setup_cost</t>
+          <t>storage_cost_frozen_per_unit_day</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>$/(unit·day)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>default_regular_rate</t>
+          <t>storage_cost_ambient_per_unit_day</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>0.002</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$/hour</t>
+          <t>$/(unit·day)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>default_overtime_rate</t>
+          <t>waste_cost_multiplier</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.5</v>
+        <v>1.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$/hour</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>default_non_fixed_rate</t>
+          <t>shortage_penalty_per_unit</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$/hour</t>
+          <t>$/unit</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>transport_cost_frozen_per_unit</t>
+          <t>storage_cost_fixed_per_pallet</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$/unit</t>
+          <t>$/pallet</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>transport_cost_ambient_per_unit</t>
+          <t>storage_cost_per_pallet_day_frozen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$/unit</t>
+          <t>$/pallet/day</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>truck_fixed_cost</t>
+          <t>storage_cost_per_pallet_day_ambient</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$/departure</t>
+          <t>$/pallet/day</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>storage_cost_frozen_per_unit_day</t>
+          <t>storage_cost_fixed_per_pallet_frozen</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$/(unit·day)</t>
+          <t>$/pallet</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>storage_cost_ambient_per_unit_day</t>
+          <t>storage_cost_fixed_per_pallet_ambient</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>$/(unit·day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>waste_cost_multiplier</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>shortage_penalty_per_unit</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$/unit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>storage_cost_fixed_per_pallet</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$/pallet</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>storage_cost_per_pallet_day_frozen</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$/pallet/day</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>storage_cost_per_pallet_day_ambient</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>$/pallet/day</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>storage_cost_fixed_per_pallet_frozen</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>$/pallet</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>storage_cost_fixed_per_pallet_ambient</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>$/pallet</t>
         </is>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -6,12 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Locations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Routes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LaborCalendar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TruckSchedules" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CostParameters" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Alias" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Locations" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Routes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LaborCalendar" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TruckSchedules" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CostParameters" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Alias" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -23,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,8 +79,12 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -96,6 +101,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F5E9"/>
         <bgColor rgb="FFE8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -200,6 +211,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,6 +580,237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>shelf_life_ambient_days</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>shelf_life_frozen_days</t>
+        </is>
+      </c>
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>shelf_life_after_thaw_days</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>min_acceptable_shelf_life_days</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>units_per_mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product G142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product G144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product G147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product G153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product G610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -913,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14801,7 +15046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15427,7 +15672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15708,7 +15953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -580,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,17 +643,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product G142</t>
+          <t>Product G144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -669,23 +669,23 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product G144</t>
+          <t>Product G610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -701,102 +701,6 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product G147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Product G153</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>120</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Product G610</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>120</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
         <v>395</v>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -214,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,9 +591,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="28" customWidth="1" min="6" max="6"/>
@@ -598,43 +601,43 @@
     <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>product_id</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>sku</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>shelf_life_ambient_days</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>shelf_life_frozen_days</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>shelf_life_after_thaw_days</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>min_acceptable_shelf_life_days</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>units_per_mix</t>
         </is>
@@ -643,17 +646,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>HELGAS GFREE MIXED GRAIN 500G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product G144</t>
+          <t>HELGAS GFREE MIXED GRAIN 500G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>HELGAS GFREE MIXED GRAIN 500G</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -669,23 +672,23 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G610</t>
+          <t>HELGAS GFREE TRAD WHITE 470G</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product G610</t>
+          <t>HELGAS GFREE TRAD WHITE 470G</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G610</t>
+          <t>HELGAS GFREE TRAD WHITE 470G</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -701,6 +704,102 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HELGAS GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HELGAS GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HELGAS GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHITE 470G</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHITE 470G</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHITE 470G</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WONDER GFREE WHOLEM 500G</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
         <v>395</v>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -15918,7 +15918,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>0.13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -15681,7 +15681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15948,6 +15948,26 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Cost per product startup (0→1 transition). Encourages campaign production. 50-200 typical</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>changeover_waste_units</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Material waste per product changeover. Yield loss when switching SKUs. Creates batch size economics.</t>
         </is>
       </c>
     </row>

--- a/data/examples/Network_Config.xlsx
+++ b/data/examples/Network_Config.xlsx
@@ -15878,7 +15878,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
